--- a/resources/experiment 2/metrics/R2/average time/Microalbuminuria.xlsx
+++ b/resources/experiment 2/metrics/R2/average time/Microalbuminuria.xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9484704007750281</v>
+        <v>0.9988667617076624</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9484704007750281</v>
+        <v>0.9988399599154901</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9484704007750281</v>
+        <v>0.9904959739028952</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9991606962621457</v>
+        <v>0.9987617446009914</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991606962621457</v>
+        <v>0.9985969538182865</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9991606962621457</v>
+        <v>0.9796081043219118</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7550999389453003</v>
+        <v>0.9992949010265352</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7550999389453003</v>
+        <v>0.9990730538946045</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7550999389453003</v>
+        <v>0.998253275466078</v>
       </c>
     </row>
   </sheetData>
